--- a/pogoda.xlsx
+++ b/pogoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,6 +686,465 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="B10" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D10" t="n">
+        <v>70</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>17:21:28 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D11" t="n">
+        <v>70</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>17:21:39 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="B12" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D12" t="n">
+        <v>70</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>17:22:19 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="B13" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D13" t="n">
+        <v>70</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>17:22:29 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="B14" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D14" t="n">
+        <v>70</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>17:23:01 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="B15" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D15" t="n">
+        <v>70</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>17:23:50 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D16" t="n">
+        <v>71</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>17:36:16 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D17" t="n">
+        <v>71</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>17:37:13 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D18" t="n">
+        <v>71</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>17:37:24 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D19" t="n">
+        <v>71</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>17:37:35 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D20" t="n">
+        <v>71</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>17:38:30 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D21" t="n">
+        <v>71</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>17:38:41 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="B22" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D22" t="n">
+        <v>71</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>17:38:56 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D23" t="n">
+        <v>71</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>17:39:08 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="B24" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D24" t="n">
+        <v>71</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>17:39:18 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D25" t="n">
+        <v>71</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>17:39:29 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="B26" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D26" t="n">
+        <v>71</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>17:39:40 15/11/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
